--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>434.1378029948193</v>
+        <v>434.2150388333496</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.57293358950517</v>
+        <v>13.57289086899223</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.3095610935571</v>
+        <v>547.3080209335303</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>971.9781438138663</v>
+        <v>971.9750752598695</v>
       </c>
       <c r="E5" t="n">
-        <v>447.7107365843245</v>
+        <v>447.7879297023418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781287994016579</v>
+        <v>0.778129180243502</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1201712915092188</v>
+        <v>0.1201719104662371</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03197518346646899</v>
+        <v>0.03197485454783768</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06315825255258063</v>
+        <v>0.06315759333213217</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006566473070073631</v>
+        <v>0.006566461410291204</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>469.0875587842644</v>
+        <v>469.0861035304101</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>882.3248499192185</v>
+        <v>882.3219476349831</v>
       </c>
       <c r="E6" t="n">
-        <v>447.7107365843245</v>
+        <v>447.7879297023418</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781287994016579</v>
+        <v>0.778129180243502</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1201712915092188</v>
+        <v>0.1201719104662371</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03197518346646899</v>
+        <v>0.03197485454783768</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06315825255258063</v>
+        <v>0.06315759333213217</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006566473070073631</v>
+        <v>0.006566461410291204</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.1552205756059</v>
+        <v>291.1640553061042</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.4246981036612</v>
+        <v>684.4331522426866</v>
       </c>
       <c r="E7" t="n">
-        <v>447.7107365843245</v>
+        <v>447.7879297023418</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781287994016579</v>
+        <v>0.778129180243502</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1201712915092188</v>
+        <v>0.1201719104662371</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03197518346646899</v>
+        <v>0.03197485454783768</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06315825255258063</v>
+        <v>0.06315759333213217</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006566473070073631</v>
+        <v>0.006566461410291204</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222.6549819456712</v>
+        <v>222.6588215423492</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>610.368570814858</v>
+        <v>610.3715520789917</v>
       </c>
       <c r="E8" t="n">
-        <v>447.7107365843245</v>
+        <v>447.7879297023418</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781287994016579</v>
+        <v>0.778129180243502</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1201712915092188</v>
+        <v>0.1201719104662371</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03197518346646899</v>
+        <v>0.03197485454783768</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06315825255258063</v>
+        <v>0.06315759333213217</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006566473070073631</v>
+        <v>0.006566461410291204</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.7362536573323</v>
+        <v>221.7400914642874</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>609.3825268618709</v>
+        <v>609.3855058237998</v>
       </c>
       <c r="E9" t="n">
-        <v>447.7107365843245</v>
+        <v>447.7879297023418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781287994016579</v>
+        <v>0.778129180243502</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201712915092188</v>
+        <v>0.1201719104662371</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03197518346646899</v>
+        <v>0.03197485454783768</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06315825255258063</v>
+        <v>0.06315759333213217</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006566473070073631</v>
+        <v>0.006566461410291204</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.3915389666126</v>
+        <v>162.3964488324078</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0512577167301</v>
+        <v>546.0553536827827</v>
       </c>
       <c r="E10" t="n">
-        <v>447.7107365843245</v>
+        <v>447.7879297023418</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781287994016579</v>
+        <v>0.778129180243502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1201712915092188</v>
+        <v>0.1201719104662371</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03197518346646899</v>
+        <v>0.03197485454783768</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06315825255258063</v>
+        <v>0.06315759333213217</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006566473070073631</v>
+        <v>0.006566461410291204</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.75857172931048</v>
+        <v>95.75836554433273</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.6726013768105</v>
+        <v>475.6712933678153</v>
       </c>
       <c r="E11" t="n">
-        <v>447.7107365843245</v>
+        <v>447.7879297023418</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781287994016579</v>
+        <v>0.778129180243502</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201712915092188</v>
+        <v>0.1201719104662371</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03197518346646899</v>
+        <v>0.03197485454783768</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06315825255258063</v>
+        <v>0.06315759333213217</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006566473070073631</v>
+        <v>0.006566461410291204</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.86590649235092</v>
+        <v>12.86586599719037</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7070270971542594</v>
+        <v>0.7070248718018657</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762728587316292</v>
+        <v>4.762691398347868</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.64568078731707</v>
+        <v>0.6457432591048156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6781920076238438</v>
+        <v>0.6782412912979593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9520619235536524</v>
+        <v>0.95208485149739</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.22025239470587</v>
+        <v>56.22586653786109</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.89691515448813</v>
+        <v>33.90002257743933</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8487874873803901</v>
+        <v>0.8487870494624873</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.31917708580755</v>
+        <v>13.31924043455589</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7887530056076265</v>
+        <v>0.7887808876315598</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.372882612951228</v>
+        <v>6.374104820899133</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6230278354344592</v>
+        <v>0.623034025591506</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.631277541458961</v>
+        <v>2.632498704966733</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5213246383171528</v>
+        <v>0.52142265512861</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1656922050831041</v>
+        <v>0.1657257042161887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1842669613004172</v>
+        <v>0.1843037461155043</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8991964914045011</v>
+        <v>0.899198783036821</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42423.30563338244</v>
+        <v>42419.99245617614</v>
       </c>
       <c r="C2" t="n">
-        <v>42851.82387210347</v>
+        <v>42848.47722846075</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91599.81903473422</v>
+        <v>91601.17366876289</v>
       </c>
       <c r="C3" t="n">
-        <v>92525.06973205476</v>
+        <v>92526.43804925545</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39792.5500094613</v>
+        <v>39794.76152229267</v>
       </c>
       <c r="C4" t="n">
-        <v>40194.49495905182</v>
+        <v>40196.72881039663</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.4485548528095</v>
+        <v>503.4482448859619</v>
       </c>
       <c r="C5" t="n">
-        <v>508.5338937907167</v>
+        <v>508.5335806928908</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32489.49324071099</v>
+        <v>32488.05823401881</v>
       </c>
       <c r="C6" t="n">
-        <v>32817.66994011212</v>
+        <v>32816.22043840284</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38223.11240264635</v>
+        <v>38223.49278115934</v>
       </c>
       <c r="C7" t="n">
-        <v>38609.20444711752</v>
+        <v>38609.58866783771</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.73106879099919</v>
+        <v>51.72018455461916</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.05074004438211</v>
+        <v>70.06075663151861</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.020612781620172</v>
+        <v>6.021480430863707</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.8595448653118</v>
+        <v>520.8509377765306</v>
       </c>
       <c r="C3" t="n">
-        <v>6.354188768652488</v>
+        <v>6.35478322623767</v>
       </c>
       <c r="D3" t="n">
-        <v>3468.766795392751</v>
+        <v>3468.738769020069</v>
       </c>
       <c r="E3" t="n">
-        <v>57.36716004302995</v>
+        <v>57.37170376541255</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.1677319462123</v>
+        <v>283.1757077422258</v>
       </c>
       <c r="C4" t="n">
-        <v>6.728830726375636</v>
+        <v>6.72963128186897</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.080336148973</v>
+        <v>2776.070367673728</v>
       </c>
       <c r="E4" t="n">
-        <v>57.36716004302995</v>
+        <v>57.37170376541255</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.9512777301557</v>
+        <v>281.9607596512434</v>
       </c>
       <c r="C5" t="n">
-        <v>6.728830726375636</v>
+        <v>6.72963128186897</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.05161808124</v>
+        <v>1247.101586927495</v>
       </c>
       <c r="E5" t="n">
-        <v>57.36716004302995</v>
+        <v>57.37170376541255</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.0276011897369</v>
+        <v>159.0265884060624</v>
       </c>
       <c r="C6" t="n">
-        <v>6.728830726375636</v>
+        <v>6.72963128186897</v>
       </c>
       <c r="D6" t="n">
-        <v>674.8705184992283</v>
+        <v>674.8666289334942</v>
       </c>
       <c r="E6" t="n">
-        <v>57.36716004302995</v>
+        <v>57.37170376541255</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.9907646673135</v>
+        <v>151.9946554822641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5021230965551378</v>
+        <v>0.5021749167050119</v>
       </c>
       <c r="D7" t="n">
-        <v>640.7750159090472</v>
+        <v>640.7918262853684</v>
       </c>
       <c r="E7" t="n">
-        <v>57.36716004302995</v>
+        <v>57.37170376541255</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.4803254578764</v>
+        <v>166.4818311259512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4959887664444358</v>
+        <v>0.4960584472081434</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.482882908946</v>
+        <v>2782.482680661904</v>
       </c>
       <c r="E8" t="n">
-        <v>12.78453415206944</v>
+        <v>12.78749556566316</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.9907645564797</v>
+        <v>151.9946553714233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5021230965551378</v>
+        <v>0.5021749167050119</v>
       </c>
       <c r="D9" t="n">
-        <v>2748.297856936077</v>
+        <v>2748.30245568661</v>
       </c>
       <c r="E9" t="n">
-        <v>12.78453415206944</v>
+        <v>12.78749556566316</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.2684301048234</v>
+        <v>148.2689006443872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5021230965551378</v>
+        <v>0.5021749167050119</v>
       </c>
       <c r="D10" t="n">
-        <v>624.7415629469911</v>
+        <v>624.7436196619573</v>
       </c>
       <c r="E10" t="n">
-        <v>70.1516941950994</v>
+        <v>70.15919933107571</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.2684301048234</v>
+        <v>148.2689006443872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5021230965551378</v>
+        <v>0.5021749167050119</v>
       </c>
       <c r="D11" t="n">
-        <v>624.7415629469911</v>
+        <v>624.7436196619573</v>
       </c>
       <c r="E11" t="n">
-        <v>83.59550129200105</v>
+        <v>83.61588145616058</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5021230965551378</v>
+        <v>0.5021749167050119</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5852635834125</v>
+        <v>251.5853070972105</v>
       </c>
       <c r="E12" t="n">
-        <v>83.59583154570241</v>
+        <v>83.60667661420396</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.85479069613274</v>
+        <v>42.85249206893491</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>180.0712309025166</v>
+        <v>180.0616264684133</v>
       </c>
       <c r="E13" t="n">
-        <v>70.15199557087294</v>
+        <v>70.15950672832935</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.03149693859757</v>
+        <v>42.02881433080904</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.6312873763975</v>
+        <v>176.6200788861615</v>
       </c>
       <c r="E14" t="n">
-        <v>58.34997036716294</v>
+        <v>58.35718361059618</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.45162919388423</v>
+        <v>69.45130559902634</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03046835010340198</v>
+        <v>0.03046792214037458</v>
       </c>
       <c r="D15" t="n">
-        <v>290.7668862233475</v>
+        <v>290.7655300420683</v>
       </c>
       <c r="E15" t="n">
-        <v>53.9208703514448</v>
+        <v>53.9263478811704</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.36578562036158</v>
+        <v>43.36468486345871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03046100954436798</v>
+        <v>0.03045368206647865</v>
       </c>
       <c r="D16" t="n">
-        <v>181.6217430827476</v>
+        <v>181.6171354646867</v>
       </c>
       <c r="E16" t="n">
-        <v>53.91463643862681</v>
+        <v>53.91433091906554</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>576.457296356334</v>
+        <v>576.4534818632567</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.61685232634744</v>
+        <v>72.61637181116922</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.05959282950269</v>
+        <v>56.05634237198058</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>234.7215151771278</v>
+        <v>234.7079055114827</v>
       </c>
       <c r="E19" t="n">
-        <v>72.61685232634744</v>
+        <v>72.61637181116922</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96.87747320672111</v>
+        <v>96.87825362898548</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09061791444835185</v>
+        <v>0.09061806916844183</v>
       </c>
       <c r="D20" t="n">
-        <v>2650.205387103085</v>
+        <v>2650.192041780021</v>
       </c>
       <c r="E20" t="n">
-        <v>24.35252667942341</v>
+        <v>24.35285307937245</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.47136266451912</v>
+        <v>95.47140918368784</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08608701872593426</v>
+        <v>0.08608716571001973</v>
       </c>
       <c r="D21" t="n">
-        <v>400.0747413692168</v>
+        <v>400.0749373594542</v>
       </c>
       <c r="E21" t="n">
-        <v>24.35252667942341</v>
+        <v>24.35285307937245</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.52411219178802</v>
+        <v>67.52379747867765</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>282.7234577470165</v>
+        <v>282.7221400432234</v>
       </c>
       <c r="E22" t="n">
-        <v>576.457296356334</v>
+        <v>576.4534818632567</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>576.457296356334</v>
+        <v>576.4534818632567</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.31636383926954</v>
+        <v>39.31595437616556</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>576.457296356334</v>
+        <v>576.4534818632567</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.63800666756293</v>
+        <v>70.63768049822664</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03207194747726524</v>
+        <v>0.03207149698986798</v>
       </c>
       <c r="D25" t="n">
-        <v>2526.973079383825</v>
+        <v>2526.957335699446</v>
       </c>
       <c r="E25" t="n">
-        <v>29.56256823834432</v>
+        <v>29.56230629538896</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>517.9987367598683</v>
+        <v>517.9889862739863</v>
       </c>
       <c r="C26" t="n">
-        <v>5.726132880430659</v>
+        <v>5.726602085488065</v>
       </c>
       <c r="D26" t="n">
-        <v>3468.766795392751</v>
+        <v>3468.738769020069</v>
       </c>
       <c r="E26" t="n">
-        <v>45.56532262745172</v>
+        <v>45.56946307782778</v>
       </c>
       <c r="F26" t="n">
-        <v>6.961610518310201</v>
+        <v>6.961538819216662</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.6000467447055</v>
+        <v>199.5948046943358</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3733833350516256</v>
+        <v>0.3734244818967215</v>
       </c>
       <c r="D27" t="n">
-        <v>2861.426746308515</v>
+        <v>2861.413751402173</v>
       </c>
       <c r="E27" t="n">
-        <v>45.56532262745172</v>
+        <v>45.56946307782778</v>
       </c>
       <c r="F27" t="n">
-        <v>7.204484323894031</v>
+        <v>7.204406987720076</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.9692713727396</v>
+        <v>163.9712516192088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4198978814162998</v>
+        <v>0.419960580046132</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.482882908946</v>
+        <v>2782.482680661904</v>
       </c>
       <c r="E28" t="n">
-        <v>12.78453415206944</v>
+        <v>12.78749556566316</v>
       </c>
       <c r="F28" t="n">
-        <v>6.977970031556429</v>
+        <v>6.977902863283592</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.3320293952553</v>
+        <v>191.327325909902</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3733833350516256</v>
+        <v>0.3734244818967215</v>
       </c>
       <c r="D29" t="n">
-        <v>2844.130036883132</v>
+        <v>2844.117944003259</v>
       </c>
       <c r="E29" t="n">
-        <v>58.34985677952116</v>
+        <v>58.35695864349094</v>
       </c>
       <c r="F29" t="n">
-        <v>7.167572831993796</v>
+        <v>7.167497029127523</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.877465375366</v>
+        <v>96.87842871128811</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09062568802615126</v>
+        <v>0.09062886424204465</v>
       </c>
       <c r="D30" t="n">
-        <v>2650.205375300951</v>
+        <v>2650.192305449205</v>
       </c>
       <c r="E30" t="n">
-        <v>58.34985677952116</v>
+        <v>58.35695864349094</v>
       </c>
       <c r="F30" t="n">
-        <v>7.336778868697301</v>
+        <v>7.336727748958762</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09868589513368</v>
+        <v>99.098039925557</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.63741330699463</v>
+        <v>70.63775541267432</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03207112796380326</v>
+        <v>0.03207160045716109</v>
       </c>
       <c r="D31" t="n">
-        <v>2526.97137819832</v>
+        <v>2526.957351854392</v>
       </c>
       <c r="E31" t="n">
-        <v>33.99155466642068</v>
+        <v>33.99291705770951</v>
       </c>
       <c r="F31" t="n">
-        <v>7.453066068828713</v>
+        <v>7.453018809593567</v>
       </c>
       <c r="G31" t="n">
-        <v>95.70162809904727</v>
+        <v>95.70099985683085</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.74059404358422</v>
+        <v>42.76922053523043</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008534447663161474</v>
+        <v>0.008547224814944882</v>
       </c>
       <c r="D32" t="n">
-        <v>2526.97137819832</v>
+        <v>2526.957351854392</v>
       </c>
       <c r="E32" t="n">
-        <v>4.435333928536124</v>
+        <v>4.442852691530643</v>
       </c>
       <c r="F32" t="n">
-        <v>8.041719300868646</v>
+        <v>8.041001359195047</v>
       </c>
       <c r="G32" t="n">
-        <v>97.85648821772077</v>
+        <v>97.85371548114145</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.48868718923956</v>
+        <v>25.49148373239348</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003263460101730864</v>
+        <v>0.00326400218748007</v>
       </c>
       <c r="D33" t="n">
-        <v>2522.628732187587</v>
+        <v>2522.564697562267</v>
       </c>
       <c r="E33" t="n">
-        <v>4.435333928536124</v>
+        <v>4.442852691530643</v>
       </c>
       <c r="F33" t="n">
-        <v>8.463299565928324</v>
+        <v>8.463009395305489</v>
       </c>
       <c r="G33" t="n">
-        <v>98.98539233421111</v>
+        <v>98.98255827387449</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.48868718923956</v>
+        <v>25.49148373239348</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003263460101730864</v>
+        <v>0.00326400218748007</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8727543274147</v>
+        <v>106.8844482991718</v>
       </c>
       <c r="E34" t="n">
-        <v>4.435333928536124</v>
+        <v>4.442852691530643</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.51192098767109</v>
+        <v>27.51471930946576</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9687511601591</v>
+        <v>115.9804446913385</v>
       </c>
       <c r="E35" t="n">
-        <v>4.435333928536124</v>
+        <v>4.442852691530643</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>505.8556892529306</v>
+        <v>505.8510094154935</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3481.1647026683</v>
+        <v>3481.154370077568</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16424225881626</v>
+        <v>10.16416289303308</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>11.80202520371</v>
+        <v>11.80232311773317</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.8556892529306</v>
+        <v>520.8510094154935</v>
       </c>
       <c r="C42" t="n">
-        <v>6.354267920768773</v>
+        <v>6.355428572326037</v>
       </c>
       <c r="D42" t="n">
-        <v>3468.752486544111</v>
+        <v>3468.73282134337</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80202520371</v>
+        <v>11.80232311773317</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97399852255983</v>
+        <v>11.97390502559799</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762728587316292</v>
+        <v>4.762691398347868</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.955962153838463</v>
+        <v>1.954929483393169</v>
       </c>
       <c r="C2" t="n">
-        <v>2.219020469577467</v>
+        <v>2.217734759259558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8814529566781805</v>
+        <v>0.8814983285223286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1992453120253713</v>
+        <v>0.1993910803371104</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>118.9134583740295</v>
+        <v>118.9497272515441</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>30.93332706737367</v>
+        <v>30.93651857001445</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.202195165019177</v>
+        <v>6.202272119581209</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.19729774489959</v>
+        <v>43.20101690769517</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.67364528109557</v>
+        <v>27.67547496657979</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484408965895823</v>
+        <v>0.8484418383196931</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.31547622933736</v>
+        <v>11.31691046901149</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7559368176244692</v>
+        <v>0.7559103541468855</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.188915149275635</v>
+        <v>4.189115556159154</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7550544206742995</v>
+        <v>0.7550495323005204</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01926108519102615</v>
+        <v>0.01951591594473081</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03334268955172795</v>
+        <v>0.03368037880002404</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04034378336612858</v>
+        <v>0.04041217205309095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0452205446728571</v>
+        <v>0.04529704669133829</v>
       </c>
       <c r="D12" t="n">
-        <v>0.892156068839752</v>
+        <v>0.8921590921471394</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39737.35482431582</v>
+        <v>39744.13252638285</v>
       </c>
       <c r="C2" t="n">
-        <v>40138.74224678366</v>
+        <v>40145.58841048773</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87716.0025120979</v>
+        <v>87726.09186000671</v>
       </c>
       <c r="C3" t="n">
-        <v>88602.02273949282</v>
+        <v>88612.21400000677</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32824.16606408203</v>
+        <v>32832.25170166609</v>
       </c>
       <c r="C4" t="n">
-        <v>33155.72329705256</v>
+        <v>33163.89060774353</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>437.0478398513986</v>
+        <v>437.1242150911067</v>
       </c>
       <c r="C5" t="n">
-        <v>441.4624644963622</v>
+        <v>441.5396112031381</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28070.54826621319</v>
+        <v>28074.8929378108</v>
       </c>
       <c r="C6" t="n">
-        <v>28354.0891577911</v>
+        <v>28358.4777149604</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31194.18726906283</v>
+        <v>31201.96132595916</v>
       </c>
       <c r="C7" t="n">
-        <v>31509.28006976044</v>
+        <v>31517.132652484</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.24840291659802</v>
+        <v>54.24880354278367</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.08297456611838</v>
+        <v>68.08275274180144</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.824433783412481</v>
+        <v>5.823406957834151</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34723.81504101089</v>
+        <v>34723.43888378202</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3888.563422226094</v>
+        <v>3889.682161951782</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22532.80817339861</v>
+        <v>22532.7372518755</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.800554399073</v>
+        <v>7875.73905752963</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.90943327849</v>
+        <v>5689.865004573732</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.14824950578</v>
+        <v>21120.98332855744</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38575.42165940943</v>
+        <v>38576.26955261258</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7570450596083514</v>
+        <v>0.7572759600877036</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.6864291009474</v>
+        <v>465.6921641255526</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.3550466364231</v>
+        <v>871.3615398566922</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.0823963698764</v>
+        <v>304.0859180140163</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.8361846615737</v>
+        <v>691.8400230473487</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.9607281651022</v>
+        <v>231.960266142279</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.8500776140588</v>
+        <v>613.8495818398877</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.0411459736007</v>
+        <v>231.0406844309163</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.8634106906691</v>
+        <v>612.8629155239762</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3498738478301</v>
+        <v>171.3520579321282</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1899568108055</v>
+        <v>549.1922739943009</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.3540112660529</v>
+        <v>100.3555082039456</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.2796599131896</v>
+        <v>474.2812316244942</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.5150622685082</v>
+        <v>509.522559402365</v>
       </c>
       <c r="C3" t="n">
-        <v>7.72072864262736</v>
+        <v>7.72128443789102</v>
       </c>
       <c r="D3" t="n">
-        <v>3426.20084215769</v>
+        <v>3426.213476191727</v>
       </c>
       <c r="E3" t="n">
-        <v>63.41638749842561</v>
+        <v>63.41933029018332</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.8092595133273</v>
+        <v>295.8127020157731</v>
       </c>
       <c r="C4" t="n">
-        <v>8.092244955219991</v>
+        <v>8.092642888683816</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.30432892798</v>
+        <v>2757.298347869024</v>
       </c>
       <c r="E4" t="n">
-        <v>63.41638749842561</v>
+        <v>63.41933029018332</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.2377517323971</v>
+        <v>294.2394126737756</v>
       </c>
       <c r="C5" t="n">
-        <v>8.092244955219991</v>
+        <v>8.092642888683816</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.905699874558</v>
+        <v>1312.914585020712</v>
       </c>
       <c r="E5" t="n">
-        <v>63.41638749842561</v>
+        <v>63.41933029018332</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2879983762941</v>
+        <v>161.2907913668371</v>
       </c>
       <c r="C6" t="n">
-        <v>8.092244955219991</v>
+        <v>8.092642888683816</v>
       </c>
       <c r="D6" t="n">
-        <v>685.4259054708784</v>
+        <v>685.4381866531279</v>
       </c>
       <c r="E6" t="n">
-        <v>63.41638749842561</v>
+        <v>63.41933029018332</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.9472502162511</v>
+        <v>159.9499591504312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6174056159784912</v>
+        <v>0.6174481674876998</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2442976438306</v>
+        <v>675.2560662152404</v>
       </c>
       <c r="E7" t="n">
-        <v>63.41638749842561</v>
+        <v>63.41933029018332</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.794154886723</v>
+        <v>173.7946611208671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6111982848657397</v>
+        <v>0.611223663936324</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.009612383622</v>
+        <v>2791.007814742814</v>
       </c>
       <c r="E8" t="n">
-        <v>14.97259639600303</v>
+        <v>14.97182298980847</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.9472500898817</v>
+        <v>159.9499590240566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6174056159784912</v>
+        <v>0.6174481674876998</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.383292881718</v>
+        <v>2757.386275034663</v>
       </c>
       <c r="E9" t="n">
-        <v>14.97259639600303</v>
+        <v>14.97182298980847</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.0711081437653</v>
+        <v>156.0802598870061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6174056159784912</v>
+        <v>0.6174481674876998</v>
       </c>
       <c r="D10" t="n">
-        <v>658.4632127937648</v>
+        <v>658.5028064818564</v>
       </c>
       <c r="E10" t="n">
-        <v>78.38898389442863</v>
+        <v>78.3911532799918</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.0711081437653</v>
+        <v>156.0802598870061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6174056159784912</v>
+        <v>0.6174481674876998</v>
       </c>
       <c r="D11" t="n">
-        <v>658.4632127937648</v>
+        <v>658.5028064818564</v>
       </c>
       <c r="E11" t="n">
-        <v>93.96480760814516</v>
+        <v>93.95659924223622</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6174056159784912</v>
+        <v>0.6174481674876998</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6820659790796</v>
+        <v>251.6821017089525</v>
       </c>
       <c r="E12" t="n">
-        <v>93.95808338514786</v>
+        <v>93.95845255153009</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.65746420292191</v>
+        <v>40.65807964016841</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>170.8904241649928</v>
+        <v>170.8929954768328</v>
       </c>
       <c r="E13" t="n">
-        <v>72.33975643904397</v>
+        <v>72.34352675522528</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.65746420292191</v>
+        <v>40.65807964016841</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>170.8904241649928</v>
+        <v>170.8929954768328</v>
       </c>
       <c r="E14" t="n">
-        <v>72.33975643904397</v>
+        <v>72.34352675522528</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.48992868874581</v>
+        <v>70.49473407592518</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03186797931825063</v>
+        <v>0.03187458118300512</v>
       </c>
       <c r="D15" t="n">
-        <v>295.1187175857117</v>
+        <v>295.1388600005261</v>
       </c>
       <c r="E15" t="n">
-        <v>54.12104206359657</v>
+        <v>54.12112788140705</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.6357814855117</v>
+        <v>43.63676741521635</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0318679793182499</v>
+        <v>0.031874581183006</v>
       </c>
       <c r="D16" t="n">
-        <v>182.751571273332</v>
+        <v>182.7556983109481</v>
       </c>
       <c r="E16" t="n">
-        <v>54.12104206361388</v>
+        <v>54.12112788140973</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.75957313387538</v>
+        <v>56.76243469503795</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>237.6523327115362</v>
+        <v>237.6643140681239</v>
       </c>
       <c r="E19" t="n">
         <v>72.41661135630625</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5390896797443</v>
+        <v>106.5446052617843</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08978487192461256</v>
+        <v>0.08978124607708567</v>
       </c>
       <c r="D20" t="n">
-        <v>2642.032399376254</v>
+        <v>2642.045876383096</v>
       </c>
       <c r="E20" t="n">
-        <v>23.29612503987169</v>
+        <v>23.29103553981976</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.21991122280791</v>
+        <v>95.21881295151836</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08529562832838192</v>
+        <v>0.08529218377323138</v>
       </c>
       <c r="D21" t="n">
-        <v>399.015384745699</v>
+        <v>399.0107579181243</v>
       </c>
       <c r="E21" t="n">
-        <v>23.29612503987169</v>
+        <v>23.29103553981976</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.50781495868436</v>
+        <v>68.51233692252119</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>286.8422212320115</v>
+        <v>286.8611546945962</v>
       </c>
       <c r="E22" t="n">
         <v>574.8677153636058</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.40454099777767</v>
+        <v>39.40490147125191</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.68458336688656</v>
+        <v>71.68942713931989</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03354524138763225</v>
+        <v>0.03355219071895275</v>
       </c>
       <c r="D25" t="n">
-        <v>2512.089276668173</v>
+        <v>2512.101307555603</v>
       </c>
       <c r="E25" t="n">
-        <v>30.82491702373013</v>
+        <v>30.83009234158555</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.6197941351655</v>
+        <v>506.6278077510759</v>
       </c>
       <c r="C26" t="n">
-        <v>7.106918428976705</v>
+        <v>7.107508453948022</v>
       </c>
       <c r="D26" t="n">
-        <v>3426.20084215769</v>
+        <v>3426.213476191727</v>
       </c>
       <c r="E26" t="n">
-        <v>57.36716004302995</v>
+        <v>57.37170376541255</v>
       </c>
       <c r="F26" t="n">
-        <v>6.812408588110921</v>
+        <v>6.812388552225137</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.4982769892896</v>
+        <v>189.5015163395406</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4624292698731794</v>
+        <v>0.4624593519677212</v>
       </c>
       <c r="D27" t="n">
-        <v>2835.324195500216</v>
+        <v>2835.329462775404</v>
       </c>
       <c r="E27" t="n">
-        <v>57.36716004302995</v>
+        <v>57.37170376541255</v>
       </c>
       <c r="F27" t="n">
-        <v>7.052253082957106</v>
+        <v>7.052235264757013</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.1837346530862</v>
+        <v>171.1836698929852</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5262281727158223</v>
+        <v>0.5262516639438274</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.009612383622</v>
+        <v>2791.007814742814</v>
       </c>
       <c r="E28" t="n">
-        <v>14.97259639600303</v>
+        <v>14.97182298980847</v>
       </c>
       <c r="F28" t="n">
-        <v>6.896765523318968</v>
+        <v>6.896741652696568</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.2427489088874</v>
+        <v>185.2457681824307</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4624292698731794</v>
+        <v>0.4624593519677212</v>
       </c>
       <c r="D29" t="n">
-        <v>2826.152138527352</v>
+        <v>2826.15689546049</v>
       </c>
       <c r="E29" t="n">
-        <v>72.33975643903298</v>
+        <v>72.34352675522103</v>
       </c>
       <c r="F29" t="n">
-        <v>7.032336139262014</v>
+        <v>7.032317348186917</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.5390896797516</v>
+        <v>106.5446052617907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1274876721334492</v>
+        <v>0.1275117898099981</v>
       </c>
       <c r="D30" t="n">
-        <v>2642.03239937627</v>
+        <v>2642.045876383104</v>
       </c>
       <c r="E30" t="n">
-        <v>72.33975643903298</v>
+        <v>72.34352675522103</v>
       </c>
       <c r="F30" t="n">
-        <v>7.162209998051496</v>
+        <v>7.162161438903614</v>
       </c>
       <c r="G30" t="n">
-        <v>98.04669126817673</v>
+        <v>98.04690081697657</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.68458336688383</v>
+        <v>71.68942713931989</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03354524138763012</v>
+        <v>0.03355219071895087</v>
       </c>
       <c r="D31" t="n">
-        <v>2512.089276668201</v>
+        <v>2512.101307555618</v>
       </c>
       <c r="E31" t="n">
-        <v>49.04363139916654</v>
+        <v>49.05249121539953</v>
       </c>
       <c r="F31" t="n">
-        <v>7.390214970052811</v>
+        <v>7.390159736346539</v>
       </c>
       <c r="G31" t="n">
-        <v>94.98107695898706</v>
+        <v>94.98121312995453</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.68458336688383</v>
+        <v>71.68942713931989</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03354524138763012</v>
+        <v>0.03355219071895087</v>
       </c>
       <c r="D32" t="n">
-        <v>2512.089276668201</v>
+        <v>2512.101307555618</v>
       </c>
       <c r="E32" t="n">
-        <v>18.21871437543009</v>
+        <v>18.22239887381555</v>
       </c>
       <c r="F32" t="n">
-        <v>7.390214970052811</v>
+        <v>7.390159736346539</v>
       </c>
       <c r="G32" t="n">
-        <v>94.98107695898706</v>
+        <v>94.98121312995453</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.19777754665154</v>
+        <v>30.19897838708459</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004295425973420296</v>
+        <v>0.004295721638627129</v>
       </c>
       <c r="D33" t="n">
-        <v>2367.662096613854</v>
+        <v>2367.636315696096</v>
       </c>
       <c r="E33" t="n">
-        <v>18.21871437543009</v>
+        <v>18.22239887381555</v>
       </c>
       <c r="F33" t="n">
-        <v>7.827375493954666</v>
+        <v>7.827261259559051</v>
       </c>
       <c r="G33" t="n">
-        <v>92.25139925798427</v>
+        <v>92.25023974370329</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.19777754665154</v>
+        <v>30.19897838708459</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004295425973420296</v>
+        <v>0.004295721638627129</v>
       </c>
       <c r="D34" t="n">
-        <v>126.5607404115979</v>
+        <v>126.5657602476012</v>
       </c>
       <c r="E34" t="n">
-        <v>18.21871437543009</v>
+        <v>18.22239887381555</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.22359312445809</v>
+        <v>32.22479451642522</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>135.6553560726545</v>
+        <v>135.6603753618783</v>
       </c>
       <c r="E35" t="n">
-        <v>18.21871437543009</v>
+        <v>18.22239887381555</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>505.8556892529306</v>
+        <v>505.8510094154935</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3481.1647026683</v>
+        <v>3481.154370077568</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16424225881626</v>
+        <v>10.16416289303308</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.8556892529306</v>
+        <v>520.8510094154935</v>
       </c>
       <c r="C42" t="n">
-        <v>6.354267920768773</v>
+        <v>6.355428572326037</v>
       </c>
       <c r="D42" t="n">
-        <v>3468.752486544111</v>
+        <v>3468.73282134337</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80202520371</v>
+        <v>11.80232311773317</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2150388333496</v>
+        <v>434.1472616043575</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.57289086899223</v>
+        <v>13.57302537467827</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.3080209335303</v>
+        <v>547.3094332641404</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>971.9750752598695</v>
+        <v>971.9778891314452</v>
       </c>
       <c r="E5" t="n">
-        <v>447.7879297023418</v>
+        <v>447.7202869790357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.778129180243502</v>
+        <v>0.7781288310105889</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1201719104662371</v>
+        <v>0.1201713428811202</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03197485454783768</v>
+        <v>0.03197515616703623</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06315759333213217</v>
+        <v>0.06315819783891409</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006566461410291204</v>
+        <v>0.006566472102340531</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>469.0861035304101</v>
+        <v>469.0819183628506</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>882.3219476349831</v>
+        <v>882.3183396776539</v>
       </c>
       <c r="E6" t="n">
-        <v>447.7879297023418</v>
+        <v>447.7202869790357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.778129180243502</v>
+        <v>0.7781288310105889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1201719104662371</v>
+        <v>0.1201713428811202</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03197485454783768</v>
+        <v>0.03197515616703623</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06315759333213217</v>
+        <v>0.06315819783891409</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006566461410291204</v>
+        <v>0.006566472102340531</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.1640553061042</v>
+        <v>291.1637377635071</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.4331522426866</v>
+        <v>684.4338780465042</v>
       </c>
       <c r="E7" t="n">
-        <v>447.7879297023418</v>
+        <v>447.7202869790357</v>
       </c>
       <c r="F7" t="n">
-        <v>0.778129180243502</v>
+        <v>0.7781288310105889</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1201719104662371</v>
+        <v>0.1201713428811202</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03197485454783768</v>
+        <v>0.03197515616703623</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06315759333213217</v>
+        <v>0.06315819783891409</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006566461410291204</v>
+        <v>0.006566472102340531</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222.6588215423492</v>
+        <v>222.8963687895627</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>610.3715520789917</v>
+        <v>610.627579564162</v>
       </c>
       <c r="E8" t="n">
-        <v>447.7879297023418</v>
+        <v>447.7202869790357</v>
       </c>
       <c r="F8" t="n">
-        <v>0.778129180243502</v>
+        <v>0.7781288310105889</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1201719104662371</v>
+        <v>0.1201713428811202</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03197485454783768</v>
+        <v>0.03197515616703623</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06315759333213217</v>
+        <v>0.06315819783891409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006566461410291204</v>
+        <v>0.006566472102340531</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.7400914642874</v>
+        <v>221.9779675383191</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>609.3855058237998</v>
+        <v>609.6418391187171</v>
       </c>
       <c r="E9" t="n">
-        <v>447.7879297023418</v>
+        <v>447.7202869790357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.778129180243502</v>
+        <v>0.7781288310105889</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201719104662371</v>
+        <v>0.1201713428811202</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03197485454783768</v>
+        <v>0.03197515616703623</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06315759333213217</v>
+        <v>0.06315819783891409</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006566461410291204</v>
+        <v>0.006566472102340531</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.3964488324078</v>
+        <v>162.8364666615516</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0553536827827</v>
+        <v>546.5234968234037</v>
       </c>
       <c r="E10" t="n">
-        <v>447.7879297023418</v>
+        <v>447.7202869790357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.778129180243502</v>
+        <v>0.7781288310105889</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1201719104662371</v>
+        <v>0.1201713428811202</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03197485454783768</v>
+        <v>0.03197515616703623</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06315759333213217</v>
+        <v>0.06315819783891409</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006566461410291204</v>
+        <v>0.006566472102340531</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.75836554433273</v>
+        <v>95.96656887414656</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.6712933678153</v>
+        <v>475.8912061298436</v>
       </c>
       <c r="E11" t="n">
-        <v>447.7879297023418</v>
+        <v>447.7202869790357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.778129180243502</v>
+        <v>0.7781288310105889</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201719104662371</v>
+        <v>0.1201713428811202</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03197485454783768</v>
+        <v>0.03197515616703623</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06315759333213217</v>
+        <v>0.06315819783891409</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006566461410291204</v>
+        <v>0.006566472102340531</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.86586599719037</v>
+        <v>12.86599349634653</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7070248718018657</v>
+        <v>0.7070318783317455</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762691398347868</v>
+        <v>4.762716997262649</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944168</v>
+        <v>0.05094889585944175</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6457432591048156</v>
+        <v>0.6456907076636252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6782412912979593</v>
+        <v>0.6782011475383838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95208485149739</v>
+        <v>0.9520637203390775</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.22586653786109</v>
+        <v>56.21927957842723</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.90002257743933</v>
+        <v>33.89682581002227</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8487870494624873</v>
+        <v>0.8487871570589313</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.31924043455589</v>
+        <v>13.31919164881623</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7887808876315598</v>
+        <v>0.7887423920374839</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.374104820899133</v>
+        <v>6.372431603581177</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.623034025591506</v>
+        <v>0.6230251329795879</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.632498704966733</v>
+        <v>2.630830516007539</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.52142265512861</v>
+        <v>0.521288358374892</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1657257042161887</v>
+        <v>0.1656797861577595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1843037461155043</v>
+        <v>0.184253324477413</v>
       </c>
       <c r="D12" t="n">
-        <v>0.899198783036821</v>
+        <v>0.8991956407172974</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42419.99245617614</v>
+        <v>42421.66202800023</v>
       </c>
       <c r="C2" t="n">
-        <v>42848.47722846075</v>
+        <v>42850.1636646467</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91601.17366876289</v>
+        <v>91601.66413361143</v>
       </c>
       <c r="C3" t="n">
-        <v>92526.43804925545</v>
+        <v>92526.93346829437</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39794.76152229267</v>
+        <v>39793.84666960875</v>
       </c>
       <c r="C4" t="n">
-        <v>40196.72881039663</v>
+        <v>40195.80471677651</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.4482448859619</v>
+        <v>503.4475750559596</v>
       </c>
       <c r="C5" t="n">
-        <v>508.5335806928908</v>
+        <v>508.5329040969289</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32488.05823401881</v>
+        <v>32488.65518186235</v>
       </c>
       <c r="C6" t="n">
-        <v>32816.22043840284</v>
+        <v>32816.82341602258</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38223.49278115934</v>
+        <v>38221.82768457127</v>
       </c>
       <c r="C7" t="n">
-        <v>38609.58866783771</v>
+        <v>38607.90675209219</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.72018455461916</v>
+        <v>51.73505370356159</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.06075663151861</v>
+        <v>70.04707984370482</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.021480430863707</v>
+        <v>6.020288069735062</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.8509377765306</v>
+        <v>520.8486641012927</v>
       </c>
       <c r="C3" t="n">
-        <v>6.35478322623767</v>
+        <v>6.354640950393541</v>
       </c>
       <c r="D3" t="n">
-        <v>3468.738769020069</v>
+        <v>3468.731573889973</v>
       </c>
       <c r="E3" t="n">
-        <v>57.37170376541255</v>
+        <v>57.3664157849349</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.1757077422258</v>
+        <v>283.1767684773394</v>
       </c>
       <c r="C4" t="n">
-        <v>6.72963128186897</v>
+        <v>6.729737756641186</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.070367673728</v>
+        <v>2776.069041756523</v>
       </c>
       <c r="E4" t="n">
-        <v>57.37170376541255</v>
+        <v>57.3664157849349</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.9607596512434</v>
+        <v>281.9850218436912</v>
       </c>
       <c r="C5" t="n">
-        <v>6.72963128186897</v>
+        <v>6.729737756641186</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.101586927495</v>
+        <v>1247.230651306355</v>
       </c>
       <c r="E5" t="n">
-        <v>57.37170376541255</v>
+        <v>57.3664157849349</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.0265884060624</v>
+        <v>159.5118684468873</v>
       </c>
       <c r="C6" t="n">
-        <v>6.72963128186897</v>
+        <v>6.729737756641186</v>
       </c>
       <c r="D6" t="n">
-        <v>674.8666289334942</v>
+        <v>676.9591851747081</v>
       </c>
       <c r="E6" t="n">
-        <v>57.37170376541255</v>
+        <v>57.3664157849349</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.9946554822641</v>
+        <v>152.4763234774209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5021749167050119</v>
+        <v>0.5086231940639687</v>
       </c>
       <c r="D7" t="n">
-        <v>640.7918262853684</v>
+        <v>642.8732189652079</v>
       </c>
       <c r="E7" t="n">
-        <v>57.37170376541255</v>
+        <v>57.3664157849349</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.4818311259512</v>
+        <v>166.9864509733879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4960584472081434</v>
+        <v>0.4983609080025427</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.482680661904</v>
+        <v>2783.146406407951</v>
       </c>
       <c r="E8" t="n">
-        <v>12.78749556566316</v>
+        <v>12.74635936825532</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.9946553714233</v>
+        <v>152.4763233656743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5021749167050119</v>
+        <v>0.5086231940639687</v>
       </c>
       <c r="D9" t="n">
-        <v>2748.30245568661</v>
+        <v>2748.870611072462</v>
       </c>
       <c r="E9" t="n">
-        <v>12.78749556566316</v>
+        <v>12.74635936825532</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.2689006443872</v>
+        <v>148.7130869691316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5021749167050119</v>
+        <v>0.5086231940639687</v>
       </c>
       <c r="D10" t="n">
-        <v>624.7436196619573</v>
+        <v>626.6589605995013</v>
       </c>
       <c r="E10" t="n">
-        <v>70.15919933107571</v>
+        <v>70.11277515319023</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.2689006443872</v>
+        <v>148.7130869691316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5021749167050119</v>
+        <v>0.5086231940639687</v>
       </c>
       <c r="D11" t="n">
-        <v>624.7436196619573</v>
+        <v>626.6589605995013</v>
       </c>
       <c r="E11" t="n">
-        <v>83.61588145616058</v>
+        <v>83.47087575924614</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5021749167050119</v>
+        <v>0.5086231940639687</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5853070972105</v>
+        <v>251.5907217683499</v>
       </c>
       <c r="E12" t="n">
-        <v>83.60667661420396</v>
+        <v>83.47230529902851</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.85249206893491</v>
+        <v>42.86432775198892</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>180.0616264684133</v>
+        <v>180.1110799245339</v>
       </c>
       <c r="E13" t="n">
-        <v>70.15950672832935</v>
+        <v>70.11573133823954</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.02881433080904</v>
+        <v>42.04243357462002</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.6200788861615</v>
+        <v>176.6769829146411</v>
       </c>
       <c r="E14" t="n">
-        <v>58.35718361059618</v>
+        <v>58.31347967032126</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.45130559902634</v>
+        <v>69.47237218287108</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03046792214037458</v>
+        <v>0.03049579388443842</v>
       </c>
       <c r="D15" t="n">
-        <v>290.7655300420683</v>
+        <v>290.8538199178939</v>
       </c>
       <c r="E15" t="n">
-        <v>53.9263478811704</v>
+        <v>53.91999946078056</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.36468486345871</v>
+        <v>43.36942752480496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03045368206647865</v>
+        <v>0.03048709424233234</v>
       </c>
       <c r="D16" t="n">
-        <v>181.6171354646867</v>
+        <v>181.6369892152738</v>
       </c>
       <c r="E16" t="n">
-        <v>53.91433091906554</v>
+        <v>53.91255262571384</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>576.4534818632567</v>
+        <v>576.4546066094232</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.61637181116922</v>
+        <v>72.61651349647147</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.05634237198058</v>
+        <v>56.07077362283938</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>234.7079055114827</v>
+        <v>234.7683291588285</v>
       </c>
       <c r="E19" t="n">
-        <v>72.61637181116922</v>
+        <v>72.61651349647147</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96.87825362898548</v>
+        <v>96.87061879514135</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09061806916844183</v>
+        <v>0.09060204508882883</v>
       </c>
       <c r="D20" t="n">
-        <v>2650.192041780021</v>
+        <v>2650.305431113638</v>
       </c>
       <c r="E20" t="n">
-        <v>24.35285307937245</v>
+        <v>24.32996801821673</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.47140918368784</v>
+        <v>95.46659052426989</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08608716571001973</v>
+        <v>0.08607194283438738</v>
       </c>
       <c r="D21" t="n">
-        <v>400.0749373594542</v>
+        <v>400.0546358447418</v>
       </c>
       <c r="E21" t="n">
-        <v>24.35285307937245</v>
+        <v>24.32996801821673</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.52379747867765</v>
+        <v>67.54362864417605</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>282.7221400432234</v>
+        <v>282.8051731331652</v>
       </c>
       <c r="E22" t="n">
-        <v>576.4534818632567</v>
+        <v>576.4546066094232</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>576.4534818632567</v>
+        <v>576.4546066094232</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.31595437616556</v>
+        <v>39.31777229402196</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>576.4534818632567</v>
+        <v>576.4546066094232</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.63768049822664</v>
+        <v>70.65891469185971</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03207149698986798</v>
+        <v>0.03210083566782991</v>
       </c>
       <c r="D25" t="n">
-        <v>2526.957335699446</v>
+        <v>2527.147057912537</v>
       </c>
       <c r="E25" t="n">
-        <v>29.56230629538896</v>
+        <v>29.58322160785279</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>517.9889862739863</v>
+        <v>517.984485546382</v>
       </c>
       <c r="C26" t="n">
-        <v>5.726602085488065</v>
+        <v>5.726286810199556</v>
       </c>
       <c r="D26" t="n">
-        <v>3468.738769020069</v>
+        <v>3468.731573889973</v>
       </c>
       <c r="E26" t="n">
-        <v>45.56946307782778</v>
+        <v>45.56716838393552</v>
       </c>
       <c r="F26" t="n">
-        <v>6.961538819216662</v>
+        <v>6.961554097909032</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.5948046943358</v>
+        <v>199.5455804140001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3734244818967215</v>
+        <v>0.3731799996287639</v>
       </c>
       <c r="D27" t="n">
-        <v>2861.413751402173</v>
+        <v>2861.32333520284</v>
       </c>
       <c r="E27" t="n">
-        <v>45.56946307782778</v>
+        <v>45.56716838393552</v>
       </c>
       <c r="F27" t="n">
-        <v>7.204406987720076</v>
+        <v>7.204511983344679</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.9712516192088</v>
+        <v>164.2537417006072</v>
       </c>
       <c r="C28" t="n">
-        <v>0.419960580046132</v>
+        <v>0.4194171746594813</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.482680661904</v>
+        <v>2783.146406407951</v>
       </c>
       <c r="E28" t="n">
-        <v>12.78749556566316</v>
+        <v>12.74635936825532</v>
       </c>
       <c r="F28" t="n">
-        <v>6.977902863283592</v>
+        <v>6.979999280768013</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.327325909902</v>
+        <v>191.3768948527879</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3734244818967215</v>
+        <v>0.3731799996287639</v>
       </c>
       <c r="D29" t="n">
-        <v>2844.117944003259</v>
+        <v>2844.235169435185</v>
       </c>
       <c r="E29" t="n">
-        <v>58.35695864349094</v>
+        <v>58.31352775219084</v>
       </c>
       <c r="F29" t="n">
-        <v>7.167497029127523</v>
+        <v>7.168045184667194</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.87842871128811</v>
+        <v>96.87080466410265</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09062886424204465</v>
+        <v>0.09060372951521199</v>
       </c>
       <c r="D30" t="n">
-        <v>2650.192305449205</v>
+        <v>2650.305711977957</v>
       </c>
       <c r="E30" t="n">
-        <v>58.35695864349094</v>
+        <v>58.31352775219084</v>
       </c>
       <c r="F30" t="n">
-        <v>7.336727748958762</v>
+        <v>7.337159271099673</v>
       </c>
       <c r="G30" t="n">
-        <v>99.098039925557</v>
+        <v>99.10359243371232</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.63775541267432</v>
+        <v>70.66036002479615</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03207160045716109</v>
+        <v>0.03210283346723147</v>
       </c>
       <c r="D31" t="n">
-        <v>2526.957351854392</v>
+        <v>2527.151026629506</v>
       </c>
       <c r="E31" t="n">
-        <v>33.99291705770951</v>
+        <v>33.97674989926307</v>
       </c>
       <c r="F31" t="n">
-        <v>7.453018809593567</v>
+        <v>7.453155337191781</v>
       </c>
       <c r="G31" t="n">
-        <v>95.70099985683085</v>
+        <v>95.70754771356079</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.76922053523043</v>
+        <v>42.60963165308658</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008547224814944882</v>
+        <v>0.008476203577866827</v>
       </c>
       <c r="D32" t="n">
-        <v>2526.957351854392</v>
+        <v>2527.151026629506</v>
       </c>
       <c r="E32" t="n">
-        <v>4.442852691530643</v>
+        <v>4.400927044607425</v>
       </c>
       <c r="F32" t="n">
-        <v>8.041001359195047</v>
+        <v>8.045371606325258</v>
       </c>
       <c r="G32" t="n">
-        <v>97.85371548114145</v>
+        <v>97.87398414070958</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.49148373239348</v>
+        <v>25.47596575763549</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00326400218748007</v>
+        <v>0.003260995152711885</v>
       </c>
       <c r="D33" t="n">
-        <v>2522.564697562267</v>
+        <v>2523.035644007392</v>
       </c>
       <c r="E33" t="n">
-        <v>4.442852691530643</v>
+        <v>4.400927044607425</v>
       </c>
       <c r="F33" t="n">
-        <v>8.463009395305489</v>
+        <v>8.465006791774211</v>
       </c>
       <c r="G33" t="n">
-        <v>98.98255827387449</v>
+        <v>99.0030216739917</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.49148373239348</v>
+        <v>25.47596575763549</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00326400218748007</v>
+        <v>0.003260995152711885</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8844482991718</v>
+        <v>106.8195585929075</v>
       </c>
       <c r="E34" t="n">
-        <v>4.442852691530643</v>
+        <v>4.400927044607425</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.51471930946576</v>
+        <v>27.49919146140445</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9804446913385</v>
+        <v>115.9155574248925</v>
       </c>
       <c r="E35" t="n">
-        <v>4.442852691530643</v>
+        <v>4.400927044607425</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>505.8510094154935</v>
+        <v>505.8464559875321</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3481.154370077568</v>
+        <v>3481.144316592151</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16416289303308</v>
+        <v>10.16421752423169</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>11.80232311773317</v>
+        <v>11.80225166791828</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.8510094154935</v>
+        <v>520.8464559875321</v>
       </c>
       <c r="C42" t="n">
-        <v>6.355428572326037</v>
+        <v>6.354933727154451</v>
       </c>
       <c r="D42" t="n">
-        <v>3468.73282134337</v>
+        <v>3468.722802959323</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80232311773317</v>
+        <v>11.80225166791828</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97390502559799</v>
+        <v>11.97396938395101</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762691398347868</v>
+        <v>4.762716997262649</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944168</v>
+        <v>0.05094889585944175</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.954929483393169</v>
+        <v>1.955389710005428</v>
       </c>
       <c r="C2" t="n">
-        <v>2.217734759259558</v>
+        <v>2.21904459606099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8814983285223286</v>
+        <v>0.8811854045098625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1993910803371104</v>
+        <v>0.1992214669453416</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>118.9497272515441</v>
+        <v>118.9179000057555</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>30.93651857001445</v>
+        <v>30.9337178512215</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.202272119581209</v>
+        <v>6.202204589182471</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.20101690769517</v>
+        <v>43.18909173113302</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.67547496657979</v>
+        <v>27.67787349004632</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484418383196931</v>
+        <v>0.8484280726136416</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.31691046901149</v>
+        <v>11.30871079939936</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7559103541468855</v>
+        <v>0.756044971726602</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.189115556159154</v>
+        <v>4.184395943006774</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7550495323005204</v>
+        <v>0.7553864667181768</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01951591594473081</v>
+        <v>0.01811149868056641</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03368037880002404</v>
+        <v>0.03179636439923884</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04041217205309095</v>
+        <v>0.04003082725740002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04529704669133829</v>
+        <v>0.04487045399825475</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921590921471394</v>
+        <v>0.8921422381631582</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39744.13252638285</v>
+        <v>39740.97521974388</v>
       </c>
       <c r="C2" t="n">
-        <v>40145.58841048773</v>
+        <v>40142.3992118625</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87726.09186000671</v>
+        <v>87710.9190706884</v>
       </c>
       <c r="C3" t="n">
-        <v>88612.21400000677</v>
+        <v>88596.8879501903</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32832.25170166609</v>
+        <v>32714.13136600086</v>
       </c>
       <c r="C4" t="n">
-        <v>33163.89060774353</v>
+        <v>33044.57713737461</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>437.1242150911067</v>
+        <v>436.9226351702143</v>
       </c>
       <c r="C5" t="n">
-        <v>441.5396112031381</v>
+        <v>441.3359951214285</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28074.8929378108</v>
+        <v>27976.76870283777</v>
       </c>
       <c r="C6" t="n">
-        <v>28358.4777149604</v>
+        <v>28259.36232609876</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31201.96132595916</v>
+        <v>31307.2743647143</v>
       </c>
       <c r="C7" t="n">
-        <v>31517.132652484</v>
+        <v>31623.50945930737</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.24880354278367</v>
+        <v>54.20104458304042</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.08275274180144</v>
+        <v>68.12636263393605</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.823406957834151</v>
+        <v>5.827806074767074</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34723.43888378202</v>
+        <v>34723.52333243264</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3889.682161951782</v>
+        <v>3889.245714718021</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22532.7372518755</v>
+        <v>22532.96054854176</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.73905752963</v>
+        <v>7875.78138871511</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.865004573732</v>
+        <v>5689.895586939287</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21120.98332855744</v>
+        <v>21121.09685139717</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38576.26955261258</v>
+        <v>38576.01954176959</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7572759600877036</v>
+        <v>0.757073336604082</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.6921641255526</v>
+        <v>465.6892741405898</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.3615398566922</v>
+        <v>871.3582678018234</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.0859180140163</v>
+        <v>304.0820340655333</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.8400230473487</v>
+        <v>691.835789771242</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.960266142279</v>
+        <v>231.9579919422988</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.8495818398877</v>
+        <v>613.8471415074181</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.0406844309163</v>
+        <v>231.0384110307884</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.8629155239762</v>
+        <v>612.8604765042506</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3520579321282</v>
+        <v>171.3486563007602</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1922739943009</v>
+        <v>549.1886650661775</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.3555082039456</v>
+        <v>100.3551790039146</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.2812316244942</v>
+        <v>474.2808859805969</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.522559402365</v>
+        <v>509.519406462106</v>
       </c>
       <c r="C3" t="n">
-        <v>7.72128443789102</v>
+        <v>7.720699772855188</v>
       </c>
       <c r="D3" t="n">
-        <v>3426.213476191727</v>
+        <v>3426.211768716525</v>
       </c>
       <c r="E3" t="n">
-        <v>63.41933029018332</v>
+        <v>63.41781008367642</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.8127020157731</v>
+        <v>295.8087382767815</v>
       </c>
       <c r="C4" t="n">
-        <v>8.092642888683816</v>
+        <v>8.092184704584295</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.298347869024</v>
+        <v>2757.305234488542</v>
       </c>
       <c r="E4" t="n">
-        <v>63.41933029018332</v>
+        <v>63.41781008367642</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.2394126737756</v>
+        <v>294.2365161004162</v>
       </c>
       <c r="C5" t="n">
-        <v>8.092642888683816</v>
+        <v>8.092184704584295</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.914585020712</v>
+        <v>1312.898856254479</v>
       </c>
       <c r="E5" t="n">
-        <v>63.41933029018332</v>
+        <v>63.41781008367642</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2907913668371</v>
+        <v>161.2870335350876</v>
       </c>
       <c r="C6" t="n">
-        <v>8.092642888683816</v>
+        <v>8.092184704584295</v>
       </c>
       <c r="D6" t="n">
-        <v>685.4381866531279</v>
+        <v>685.4217084828106</v>
       </c>
       <c r="E6" t="n">
-        <v>63.41933029018332</v>
+        <v>63.41781008367642</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.9499591504312</v>
+        <v>159.9463007015995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6174481674876998</v>
+        <v>0.6173907017054956</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2560662152404</v>
+        <v>675.2401726206975</v>
       </c>
       <c r="E7" t="n">
-        <v>63.41933029018332</v>
+        <v>63.41781008367642</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.7946611208671</v>
+        <v>173.7921691445758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.611223663936324</v>
+        <v>0.6111789137146586</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.007814742814</v>
+        <v>2791.006068139058</v>
       </c>
       <c r="E8" t="n">
-        <v>14.97182298980847</v>
+        <v>14.97184607411169</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.9499590240566</v>
+        <v>159.946300575233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6174481674876998</v>
+        <v>0.6173907017054956</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.386275034663</v>
+        <v>2757.382247582221</v>
       </c>
       <c r="E9" t="n">
-        <v>14.97182298980847</v>
+        <v>14.97184607411169</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.0802598870061</v>
+        <v>156.0717376483978</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6174481674876998</v>
+        <v>0.6173907017054956</v>
       </c>
       <c r="D10" t="n">
-        <v>658.5028064818564</v>
+        <v>658.4659256019079</v>
       </c>
       <c r="E10" t="n">
-        <v>78.3911532799918</v>
+        <v>78.38965615778811</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.0802598870061</v>
+        <v>156.0717376483978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6174481674876998</v>
+        <v>0.6173907017054956</v>
       </c>
       <c r="D11" t="n">
-        <v>658.5028064818564</v>
+        <v>658.4659256019079</v>
       </c>
       <c r="E11" t="n">
-        <v>93.95659924223622</v>
+        <v>93.96101357014683</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6174481674876998</v>
+        <v>0.6173907017054956</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6821017089525</v>
+        <v>251.6820534558069</v>
       </c>
       <c r="E12" t="n">
-        <v>93.95845255153009</v>
+        <v>93.95886668459492</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.65807964016841</v>
+        <v>40.65722600519291</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>170.8929954768328</v>
+        <v>170.8894289691276</v>
       </c>
       <c r="E13" t="n">
-        <v>72.34352675522528</v>
+        <v>72.33826185905896</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.65807964016841</v>
+        <v>40.65722600519291</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>170.8929954768328</v>
+        <v>170.8894289691276</v>
       </c>
       <c r="E14" t="n">
-        <v>72.34352675522528</v>
+        <v>72.33826185905896</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.49473407592518</v>
+        <v>70.48816955049898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03187458118300512</v>
+        <v>0.03186556282120728</v>
       </c>
       <c r="D15" t="n">
-        <v>295.1388600005261</v>
+        <v>295.1113439291433</v>
       </c>
       <c r="E15" t="n">
-        <v>54.12112788140705</v>
+        <v>54.12091341370247</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.63676741521635</v>
+        <v>43.63540390958059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.031874581183006</v>
+        <v>0.03186556282121</v>
       </c>
       <c r="D16" t="n">
-        <v>182.7556983109481</v>
+        <v>182.7499908631322</v>
       </c>
       <c r="E16" t="n">
-        <v>54.12112788140973</v>
+        <v>54.12091341373501</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.76243469503795</v>
+        <v>56.75850221388508</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>237.6643140681239</v>
+        <v>237.6478487695368</v>
       </c>
       <c r="E19" t="n">
         <v>72.41661135630625</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5446052617843</v>
+        <v>106.5370578126071</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08978124607708567</v>
+        <v>0.08978619727035274</v>
       </c>
       <c r="D20" t="n">
-        <v>2642.045876383096</v>
+        <v>2642.031751455163</v>
       </c>
       <c r="E20" t="n">
-        <v>23.29103553981976</v>
+        <v>23.29794389601663</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.21881295151836</v>
+        <v>95.22031331946458</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08529218377323138</v>
+        <v>0.0852968874068351</v>
       </c>
       <c r="D21" t="n">
-        <v>399.0107579181243</v>
+        <v>399.0170787083403</v>
       </c>
       <c r="E21" t="n">
-        <v>23.29103553981976</v>
+        <v>23.29794389601663</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.51233692252119</v>
+        <v>68.50615938728083</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>286.8611546945962</v>
+        <v>286.8352893545448</v>
       </c>
       <c r="E22" t="n">
         <v>574.8677153636058</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.40490147125191</v>
+        <v>39.40440609300801</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.68942713931989</v>
+        <v>71.68281017688651</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03355219071895275</v>
+        <v>0.03354269770653397</v>
       </c>
       <c r="D25" t="n">
-        <v>2512.101307555603</v>
+        <v>2512.089045774028</v>
       </c>
       <c r="E25" t="n">
-        <v>30.83009234158555</v>
+        <v>30.82296951770419</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.6278077510759</v>
+        <v>506.6239837322046</v>
       </c>
       <c r="C26" t="n">
-        <v>7.107508453948022</v>
+        <v>7.106851508243079</v>
       </c>
       <c r="D26" t="n">
-        <v>3426.213476191727</v>
+        <v>3426.211768716525</v>
       </c>
       <c r="E26" t="n">
-        <v>57.37170376541255</v>
+        <v>57.3664157849349</v>
       </c>
       <c r="F26" t="n">
-        <v>6.812388552225137</v>
+        <v>6.812426710943749</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.5015163395406</v>
+        <v>189.5002442349361</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4624593519677212</v>
+        <v>0.4624188121011739</v>
       </c>
       <c r="D27" t="n">
-        <v>2835.329462775404</v>
+        <v>2835.329013602443</v>
       </c>
       <c r="E27" t="n">
-        <v>57.37170376541255</v>
+        <v>57.3664157849349</v>
       </c>
       <c r="F27" t="n">
-        <v>7.052235264757013</v>
+        <v>7.05227364980772</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.1836698929852</v>
+        <v>171.1816467464164</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5262516639438274</v>
+        <v>0.5262113207937665</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.007814742814</v>
+        <v>2791.006068139058</v>
       </c>
       <c r="E28" t="n">
-        <v>14.97182298980847</v>
+        <v>14.97184607411169</v>
       </c>
       <c r="F28" t="n">
-        <v>6.896741652696568</v>
+        <v>6.896771769146702</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.2457681824307</v>
+        <v>185.2440178104647</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4624593519677212</v>
+        <v>0.4624188121011739</v>
       </c>
       <c r="D29" t="n">
-        <v>2826.15689546049</v>
+        <v>2826.155496020253</v>
       </c>
       <c r="E29" t="n">
-        <v>72.34352675522103</v>
+        <v>72.33826185904658</v>
       </c>
       <c r="F29" t="n">
-        <v>7.032317348186917</v>
+        <v>7.032353604351821</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.5446052617907</v>
+        <v>106.5370578126137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1275117898099981</v>
+        <v>0.1274787884496627</v>
       </c>
       <c r="D30" t="n">
-        <v>2642.045876383104</v>
+        <v>2642.031751455183</v>
       </c>
       <c r="E30" t="n">
-        <v>72.34352675522103</v>
+        <v>72.33826185904658</v>
       </c>
       <c r="F30" t="n">
-        <v>7.162161438903614</v>
+        <v>7.162239256613629</v>
       </c>
       <c r="G30" t="n">
-        <v>98.04690081697657</v>
+        <v>98.04680687802704</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.68942713931989</v>
+        <v>71.68281017689475</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03355219071895087</v>
+        <v>0.03354269770653361</v>
       </c>
       <c r="D31" t="n">
-        <v>2512.101307555618</v>
+        <v>2512.089045774058</v>
       </c>
       <c r="E31" t="n">
-        <v>49.05249121539953</v>
+        <v>49.04031796304831</v>
       </c>
       <c r="F31" t="n">
-        <v>7.390159736346539</v>
+        <v>7.390247292861449</v>
       </c>
       <c r="G31" t="n">
-        <v>94.98121312995453</v>
+        <v>94.98120631245357</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.68942713931989</v>
+        <v>71.68281017689475</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03355219071895087</v>
+        <v>0.03354269770653361</v>
       </c>
       <c r="D32" t="n">
-        <v>2512.101307555618</v>
+        <v>2512.089045774058</v>
       </c>
       <c r="E32" t="n">
-        <v>18.22239887381555</v>
+        <v>18.21734844532395</v>
       </c>
       <c r="F32" t="n">
-        <v>7.390159736346539</v>
+        <v>7.390247292861449</v>
       </c>
       <c r="G32" t="n">
-        <v>94.98121312995453</v>
+        <v>94.98120631245357</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.19897838708459</v>
+        <v>30.1973433720093</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004295721638627129</v>
+        <v>0.004295319077361202</v>
       </c>
       <c r="D33" t="n">
-        <v>2367.636315696096</v>
+        <v>2367.675575070377</v>
       </c>
       <c r="E33" t="n">
-        <v>18.22239887381555</v>
+        <v>18.21734844532395</v>
       </c>
       <c r="F33" t="n">
-        <v>7.827261259559051</v>
+        <v>7.827430500870261</v>
       </c>
       <c r="G33" t="n">
-        <v>92.25023974370329</v>
+        <v>92.25198961192828</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.19897838708459</v>
+        <v>30.1973433720093</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004295721638627129</v>
+        <v>0.004295319077361202</v>
       </c>
       <c r="D34" t="n">
-        <v>126.5657602476012</v>
+        <v>126.558925444685</v>
       </c>
       <c r="E34" t="n">
-        <v>18.22239887381555</v>
+        <v>18.21734844532395</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.22479451642522</v>
+        <v>32.22315875143744</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>135.6603753618783</v>
+        <v>135.653541307966</v>
       </c>
       <c r="E35" t="n">
-        <v>18.22239887381555</v>
+        <v>18.21734844532395</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>505.8510094154935</v>
+        <v>505.8464559875321</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3481.154370077568</v>
+        <v>3481.144316592151</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16416289303308</v>
+        <v>10.16421752423169</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.8510094154935</v>
+        <v>520.8464559875321</v>
       </c>
       <c r="C42" t="n">
-        <v>6.355428572326037</v>
+        <v>6.354933727154451</v>
       </c>
       <c r="D42" t="n">
-        <v>3468.73282134337</v>
+        <v>3468.722802959323</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80232311773317</v>
+        <v>11.80225166791828</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>434.1472616043575</v>
+        <v>434.1207050883895</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.57302537467827</v>
+        <v>13.57293308983352</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.3094332641404</v>
+        <v>547.3098958728949</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>971.9778891314452</v>
+        <v>971.9788108154844</v>
       </c>
       <c r="E5" t="n">
-        <v>447.7202869790357</v>
+        <v>447.693638178223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781288310105889</v>
+        <v>0.778128716619316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1201713428811202</v>
+        <v>0.1201711569685627</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03197515616703623</v>
+        <v>0.03197525496243261</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06315819783891409</v>
+        <v>0.06315839584516642</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006566472102340531</v>
+        <v>0.006566475604522276</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>469.0819183628506</v>
+        <v>469.0860140624765</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>882.3183396776539</v>
+        <v>882.3233669509644</v>
       </c>
       <c r="E6" t="n">
-        <v>447.7202869790357</v>
+        <v>447.693638178223</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781288310105889</v>
+        <v>0.778128716619316</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1201713428811202</v>
+        <v>0.1201711569685627</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03197515616703623</v>
+        <v>0.03197525496243261</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06315819783891409</v>
+        <v>0.06315839584516642</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006566472102340531</v>
+        <v>0.006566475604522276</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.1637377635071</v>
+        <v>291.1591111145925</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.4338780465042</v>
+        <v>684.429189714221</v>
       </c>
       <c r="E7" t="n">
-        <v>447.7202869790357</v>
+        <v>447.693638178223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781288310105889</v>
+        <v>0.778128716619316</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1201713428811202</v>
+        <v>0.1201711569685627</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03197515616703623</v>
+        <v>0.03197525496243261</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06315819783891409</v>
+        <v>0.06315839584516642</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006566472102340531</v>
+        <v>0.006566475604522276</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>222.8963687895627</v>
+        <v>222.8916661927596</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>610.627579564162</v>
+        <v>610.6228741582036</v>
       </c>
       <c r="E8" t="n">
-        <v>447.7202869790357</v>
+        <v>447.693638178223</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781288310105889</v>
+        <v>0.778128716619316</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1201713428811202</v>
+        <v>0.1201711569685627</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03197515616703623</v>
+        <v>0.03197525496243261</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06315819783891409</v>
+        <v>0.06315839584516642</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006566472102340531</v>
+        <v>0.006566475604522276</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221.9779675383191</v>
+        <v>221.9732740398363</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>609.6418391187171</v>
+        <v>609.6371442904687</v>
       </c>
       <c r="E9" t="n">
-        <v>447.7202869790357</v>
+        <v>447.693638178223</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781288310105889</v>
+        <v>0.778128716619316</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1201713428811202</v>
+        <v>0.1201711569685627</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03197515616703623</v>
+        <v>0.03197525496243261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06315819783891409</v>
+        <v>0.06315839584516642</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006566472102340531</v>
+        <v>0.006566475604522276</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.8364666615516</v>
+        <v>162.8363798412391</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.5234968234037</v>
+        <v>546.5237399454358</v>
       </c>
       <c r="E10" t="n">
-        <v>447.7202869790357</v>
+        <v>447.693638178223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781288310105889</v>
+        <v>0.778128716619316</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1201713428811202</v>
+        <v>0.1201711569685627</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03197515616703623</v>
+        <v>0.03197525496243261</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06315819783891409</v>
+        <v>0.06315839584516642</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006566472102340531</v>
+        <v>0.006566475604522276</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.96656887414656</v>
+        <v>95.96435176206657</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>475.8912061298436</v>
+        <v>475.8892027395607</v>
       </c>
       <c r="E11" t="n">
-        <v>447.7202869790357</v>
+        <v>447.693638178223</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781288310105889</v>
+        <v>0.778128716619316</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1201713428811202</v>
+        <v>0.1201711569685627</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03197515616703623</v>
+        <v>0.03197525496243261</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06315819783891409</v>
+        <v>0.06315839584516642</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006566472102340531</v>
+        <v>0.006566475604522276</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.86599349634653</v>
+        <v>12.86590601870765</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7070318783317455</v>
+        <v>0.7070270711258855</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762716997262649</v>
+        <v>4.762706836078327</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944183</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6456907076636252</v>
+        <v>0.6940786272837709</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6782011475383838</v>
+        <v>0.7118750065316469</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9520637203390775</v>
+        <v>0.9750006966327102</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.21927957842723</v>
+        <v>63.39169979807033</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.89682581002227</v>
+        <v>37.08990308146222</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8487871570589313</v>
+        <v>0.8488841842549021</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.31919164881623</v>
+        <v>13.29753688900147</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7887423920374839</v>
+        <v>0.8157887850709119</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.372431603581177</v>
+        <v>8.211083053101362</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6230251329795879</v>
+        <v>0.6395103411943096</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.630830516007539</v>
+        <v>4.793176774505274</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.521288358374892</v>
+        <v>0.6573844804467859</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1656797861577595</v>
+        <v>0.2188346330167658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.184253324477413</v>
+        <v>0.242308015987426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8991956407172974</v>
+        <v>0.9031258504800009</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42421.66202800023</v>
+        <v>42236.578357629</v>
       </c>
       <c r="C2" t="n">
-        <v>42850.1636646467</v>
+        <v>42663.21046225151</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91601.66413361143</v>
+        <v>89082.38994202441</v>
       </c>
       <c r="C3" t="n">
-        <v>92526.93346829437</v>
+        <v>89982.21206265093</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39793.84666960875</v>
+        <v>40464.29402821</v>
       </c>
       <c r="C4" t="n">
-        <v>40195.80471677651</v>
+        <v>40873.02427091919</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.4475750559596</v>
+        <v>504.8600997872878</v>
       </c>
       <c r="C5" t="n">
-        <v>508.5329040969289</v>
+        <v>509.9596967548362</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32488.65518186235</v>
+        <v>32925.87892120711</v>
       </c>
       <c r="C6" t="n">
-        <v>32816.82341602258</v>
+        <v>33258.46355677486</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38221.82768457127</v>
+        <v>39005.87567511525</v>
       </c>
       <c r="C7" t="n">
-        <v>38607.90675209219</v>
+        <v>39399.87441930834</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.73505370356159</v>
+        <v>36.47421687083781</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.04707984370482</v>
+        <v>84.07308123474714</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.020288069735062</v>
+        <v>7.255123511416534</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.8486641012927</v>
+        <v>520.8571191969856</v>
       </c>
       <c r="C3" t="n">
-        <v>6.354640950393541</v>
+        <v>6.35434658670802</v>
       </c>
       <c r="D3" t="n">
-        <v>3468.731573889973</v>
+        <v>3468.755841402181</v>
       </c>
       <c r="E3" t="n">
-        <v>57.3664157849349</v>
+        <v>57.36544115734188</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.1767684773394</v>
+        <v>283.1721997219399</v>
       </c>
       <c r="C4" t="n">
-        <v>6.729737756641186</v>
+        <v>6.729279161976293</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.069041756523</v>
+        <v>2776.074752413973</v>
       </c>
       <c r="E4" t="n">
-        <v>57.3664157849349</v>
+        <v>57.36544115734188</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.9850218436912</v>
+        <v>281.9797462473887</v>
       </c>
       <c r="C5" t="n">
-        <v>6.729737756641186</v>
+        <v>6.729279161976293</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.230651306355</v>
+        <v>1247.202854869776</v>
       </c>
       <c r="E5" t="n">
-        <v>57.3664157849349</v>
+        <v>57.36544115734188</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.5118684468873</v>
+        <v>159.5137204830207</v>
       </c>
       <c r="C6" t="n">
-        <v>6.729737756641186</v>
+        <v>6.729279161976293</v>
       </c>
       <c r="D6" t="n">
-        <v>676.9591851747081</v>
+        <v>676.9668999267961</v>
       </c>
       <c r="E6" t="n">
-        <v>57.3664157849349</v>
+        <v>57.36544115734188</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.4763234774209</v>
+        <v>152.477463430476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5086231940639687</v>
+        <v>0.508638533244163</v>
       </c>
       <c r="D7" t="n">
-        <v>642.8732189652079</v>
+        <v>642.8781457355788</v>
       </c>
       <c r="E7" t="n">
-        <v>57.3664157849349</v>
+        <v>57.36544115734188</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.9864509733879</v>
+        <v>166.989221491473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4983609080025427</v>
+        <v>0.4983092666788891</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.146406407951</v>
+        <v>2783.151436262972</v>
       </c>
       <c r="E8" t="n">
-        <v>12.74635936825532</v>
+        <v>12.74208875182418</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.4763233656743</v>
+        <v>152.477463318727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5086231940639687</v>
+        <v>0.508638533244163</v>
       </c>
       <c r="D9" t="n">
-        <v>2748.870611072462</v>
+        <v>2748.871952997655</v>
       </c>
       <c r="E9" t="n">
-        <v>12.74635936825532</v>
+        <v>12.74208875182418</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.7130869691316</v>
+        <v>148.7113421450566</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5086231940639687</v>
+        <v>0.508638533244163</v>
       </c>
       <c r="D10" t="n">
-        <v>626.6589605995013</v>
+        <v>626.6514611617954</v>
       </c>
       <c r="E10" t="n">
-        <v>70.11277515319023</v>
+        <v>70.10752990916606</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.7130869691316</v>
+        <v>148.7113421450566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5086231940639687</v>
+        <v>0.508638533244163</v>
       </c>
       <c r="D11" t="n">
-        <v>626.6589605995013</v>
+        <v>626.6514611617954</v>
       </c>
       <c r="E11" t="n">
-        <v>83.47087575924614</v>
+        <v>83.4702338173191</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5086231940639687</v>
+        <v>0.508638533244163</v>
       </c>
       <c r="D12" t="n">
-        <v>251.5907217683499</v>
+        <v>251.5907346488198</v>
       </c>
       <c r="E12" t="n">
-        <v>83.47230529902851</v>
+        <v>83.4672120692554</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.86432775198892</v>
+        <v>42.86607205306149</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>180.1110799245339</v>
+        <v>180.1183682018053</v>
       </c>
       <c r="E13" t="n">
-        <v>70.11573133823954</v>
+        <v>70.1089274404812</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.04243357462002</v>
+        <v>42.04445567466382</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.6769829146411</v>
+        <v>176.6854316708708</v>
       </c>
       <c r="E14" t="n">
-        <v>58.31347967032126</v>
+        <v>58.30692148471598</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.47237218287108</v>
+        <v>69.4784801631082</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03049579388443842</v>
+        <v>0.03050387896356464</v>
       </c>
       <c r="D15" t="n">
-        <v>290.8538199178939</v>
+        <v>290.8794184625821</v>
       </c>
       <c r="E15" t="n">
-        <v>53.91999946078056</v>
+        <v>53.92307478453392</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.36942752480496</v>
+        <v>43.37005742648859</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03048709424233234</v>
+        <v>0.03049164260217453</v>
       </c>
       <c r="D16" t="n">
-        <v>181.6369892152738</v>
+        <v>181.6396262099508</v>
       </c>
       <c r="E16" t="n">
-        <v>53.91255262571384</v>
+        <v>53.91249428482512</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>576.4546066094232</v>
+        <v>576.4577074725016</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.61651349647147</v>
+        <v>72.6169041150267</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.07077362283938</v>
+        <v>56.07271555765029</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>234.7683291588285</v>
+        <v>234.7764600398818</v>
       </c>
       <c r="E19" t="n">
-        <v>72.61651349647147</v>
+        <v>72.6169041150267</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96.87061879514135</v>
+        <v>96.8695547115048</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09060204508882883</v>
+        <v>0.09059749537671651</v>
       </c>
       <c r="D20" t="n">
-        <v>2650.305431113638</v>
+        <v>2650.315986734126</v>
       </c>
       <c r="E20" t="n">
-        <v>24.32996801821673</v>
+        <v>24.32372385303705</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.46659052426989</v>
+        <v>95.46522222471066</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08607194283438738</v>
+        <v>0.08606762060788067</v>
       </c>
       <c r="D21" t="n">
-        <v>400.0546358447418</v>
+        <v>400.0488710607294</v>
       </c>
       <c r="E21" t="n">
-        <v>24.32996801821673</v>
+        <v>24.32372385303705</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.54362864417605</v>
+        <v>67.54934989894564</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>282.8051731331652</v>
+        <v>282.8291280268854</v>
       </c>
       <c r="E22" t="n">
-        <v>576.4546066094232</v>
+        <v>576.4577074725016</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>576.4546066094232</v>
+        <v>576.4577074725016</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.31777229402196</v>
+        <v>39.31801692132442</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>576.4546066094232</v>
+        <v>576.4577074725016</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.65891469185971</v>
+        <v>70.66507127091688</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03210083566782991</v>
+        <v>0.03210934627743647</v>
       </c>
       <c r="D25" t="n">
-        <v>2527.147057912537</v>
+        <v>2527.177753115745</v>
       </c>
       <c r="E25" t="n">
-        <v>29.58322160785279</v>
+        <v>29.58977353189573</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>517.984485546382</v>
+        <v>517.9937371084527</v>
       </c>
       <c r="C26" t="n">
-        <v>5.726286810199556</v>
+        <v>5.726056964902011</v>
       </c>
       <c r="D26" t="n">
-        <v>3468.731573889973</v>
+        <v>3468.755841402181</v>
       </c>
       <c r="E26" t="n">
-        <v>45.56716838393552</v>
+        <v>45.56499767235657</v>
       </c>
       <c r="F26" t="n">
-        <v>6.961554097909032</v>
+        <v>6.961602541868072</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>199.5455804140001</v>
+        <v>199.5475815527143</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3731799996287639</v>
+        <v>0.373142258866261</v>
       </c>
       <c r="D27" t="n">
-        <v>2861.32333520284</v>
+        <v>2861.329400501974</v>
       </c>
       <c r="E27" t="n">
-        <v>45.56716838393552</v>
+        <v>45.56499767235657</v>
       </c>
       <c r="F27" t="n">
-        <v>7.204511983344679</v>
+        <v>7.204570566317126</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.2537417006072</v>
+        <v>164.2537551040082</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4194171746594813</v>
+        <v>0.4193484559283813</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.146406407951</v>
+        <v>2783.151436262972</v>
       </c>
       <c r="E28" t="n">
-        <v>12.74635936825532</v>
+        <v>12.74208875182418</v>
       </c>
       <c r="F28" t="n">
-        <v>6.979999280768013</v>
+        <v>6.980083996598564</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.3768948527879</v>
+        <v>191.3805358321334</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3731799996287639</v>
+        <v>0.373142258866261</v>
       </c>
       <c r="D29" t="n">
-        <v>2844.235169435185</v>
+        <v>2844.244846636199</v>
       </c>
       <c r="E29" t="n">
-        <v>58.31352775219084</v>
+        <v>58.30708642418075</v>
       </c>
       <c r="F29" t="n">
-        <v>7.168045184667194</v>
+        <v>7.168111695652636</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.87080466410265</v>
+        <v>96.86972767521905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09060372951521199</v>
+        <v>0.09060017939735442</v>
       </c>
       <c r="D30" t="n">
-        <v>2650.305711977957</v>
+        <v>2650.316248243426</v>
       </c>
       <c r="E30" t="n">
-        <v>58.31352775219084</v>
+        <v>58.30708642418075</v>
       </c>
       <c r="F30" t="n">
-        <v>7.337159271099673</v>
+        <v>7.337205410165096</v>
       </c>
       <c r="G30" t="n">
-        <v>99.10359243371232</v>
+        <v>99.10413463760086</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.66036002479615</v>
+        <v>70.66698743193649</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03210283346723147</v>
+        <v>0.03211199549117036</v>
       </c>
       <c r="D31" t="n">
-        <v>2527.151026629506</v>
+        <v>2527.183104201333</v>
       </c>
       <c r="E31" t="n">
-        <v>33.97674989926307</v>
+        <v>33.97378517154256</v>
       </c>
       <c r="F31" t="n">
-        <v>7.453155337191781</v>
+        <v>7.453123508662859</v>
       </c>
       <c r="G31" t="n">
-        <v>95.70754771356079</v>
+        <v>95.70840784107675</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.60963165308658</v>
+        <v>42.58481307360796</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008476203577866827</v>
+        <v>0.00846520448757615</v>
       </c>
       <c r="D32" t="n">
-        <v>2527.151026629506</v>
+        <v>2527.183104201333</v>
       </c>
       <c r="E32" t="n">
-        <v>4.400927044607425</v>
+        <v>4.394427199890863</v>
       </c>
       <c r="F32" t="n">
-        <v>8.045371606325258</v>
+        <v>8.046057942898573</v>
       </c>
       <c r="G32" t="n">
-        <v>97.87398414070958</v>
+        <v>97.8772174340053</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.47596575763549</v>
+        <v>25.47356050641525</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003260995152711885</v>
+        <v>0.003260529285372267</v>
       </c>
       <c r="D33" t="n">
-        <v>2523.035644007392</v>
+        <v>2523.110420305787</v>
       </c>
       <c r="E33" t="n">
-        <v>4.400927044607425</v>
+        <v>4.394427199890863</v>
       </c>
       <c r="F33" t="n">
-        <v>8.465006791774211</v>
+        <v>8.465322366214147</v>
       </c>
       <c r="G33" t="n">
-        <v>99.0030216739917</v>
+        <v>99.00626636216484</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.47596575763549</v>
+        <v>25.47356050641525</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003260995152711885</v>
+        <v>0.003260529285372267</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8195585929075</v>
+        <v>106.8095008256781</v>
       </c>
       <c r="E34" t="n">
-        <v>4.400927044607425</v>
+        <v>4.394427199890863</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.49919146140445</v>
+        <v>27.4967846797914</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9155574248925</v>
+        <v>115.9055000382117</v>
       </c>
       <c r="E35" t="n">
-        <v>4.400927044607425</v>
+        <v>4.394427199890863</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>505.8464559875321</v>
+        <v>505.8511406608303</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3481.144316592151</v>
+        <v>3481.154659853429</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421752423169</v>
+        <v>10.16419583902809</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>11.80225166791828</v>
+        <v>11.80200595576522</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.8464559875321</v>
+        <v>520.8511406608303</v>
       </c>
       <c r="C42" t="n">
-        <v>6.354933727154451</v>
+        <v>6.354344080722634</v>
       </c>
       <c r="D42" t="n">
-        <v>3468.722802959323</v>
+        <v>3468.741415828819</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80225166791828</v>
+        <v>11.80200595576522</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97396938395101</v>
+        <v>11.97394383766933</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762716997262649</v>
+        <v>4.762706836078327</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944175</v>
+        <v>0.05094889585944183</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.955389710005428</v>
+        <v>1.955516422683373</v>
       </c>
       <c r="C2" t="n">
-        <v>2.21904459606099</v>
+        <v>2.219250449516152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8811854045098625</v>
+        <v>0.8811607644868205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1992214669453416</v>
+        <v>0.199190254585102</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>118.9179000057555</v>
+        <v>118.905429434539</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>30.9337178512215</v>
+        <v>30.93262070760639</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.202204589182471</v>
+        <v>6.202178129379686</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.18909173113302</v>
+        <v>43.18599200842325</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.67787349004632</v>
+        <v>27.67738436574579</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484280726136416</v>
+        <v>0.8484264007329789</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.30871079939936</v>
+        <v>11.30741154660763</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.756044971726602</v>
+        <v>0.7560669104365091</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.184395943006774</v>
+        <v>4.183298983182678</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7553864667181768</v>
+        <v>0.7554748127997096</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01811149868056641</v>
+        <v>0.01789711288714529</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03179636439923884</v>
+        <v>0.03150405302117851</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04003082725740002</v>
+        <v>0.03997170634974364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04487045399825475</v>
+        <v>0.04480431662890708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921422381631582</v>
+        <v>0.8921396275454961</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39740.97521974388</v>
+        <v>39736.79012772848</v>
       </c>
       <c r="C2" t="n">
-        <v>40142.3992118625</v>
+        <v>40138.17184619038</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87710.9190706884</v>
+        <v>87710.0045395897</v>
       </c>
       <c r="C3" t="n">
-        <v>88596.8879501903</v>
+        <v>88595.96418140375</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32714.13136600086</v>
+        <v>32712.1917524854</v>
       </c>
       <c r="C4" t="n">
-        <v>33044.57713737461</v>
+        <v>33042.61793180343</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>436.9226351702143</v>
+        <v>436.8919408397058</v>
       </c>
       <c r="C5" t="n">
-        <v>441.3359951214285</v>
+        <v>441.3049907471776</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27976.76870283777</v>
+        <v>27972.91491295064</v>
       </c>
       <c r="C6" t="n">
-        <v>28259.36232609876</v>
+        <v>28255.46960904105</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31307.2743647143</v>
+        <v>31306.4066133059</v>
       </c>
       <c r="C7" t="n">
-        <v>31623.50945930737</v>
+        <v>31622.63294273323</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.20104458304042</v>
+        <v>54.18752715803779</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.12636263393605</v>
+        <v>68.13994764279066</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.827806074767074</v>
+        <v>5.828427863095746</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34723.52333243264</v>
+        <v>34723.55438125664</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3889.245714718021</v>
+        <v>3888.630452332926</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22532.96054854176</v>
+        <v>22532.80734387969</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.78138871511</v>
+        <v>7875.764585855227</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.895586939287</v>
+        <v>5689.883447633536</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.09685139717</v>
+        <v>21121.05178985807</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38576.01954176959</v>
+        <v>38575.33027567976</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.757073336604082</v>
+        <v>0.7569939445448566</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.6892741405898</v>
+        <v>466.0096372186952</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.3582678018234</v>
+        <v>871.7209978838837</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.0820340655333</v>
+        <v>308.942031845251</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.835789771242</v>
+        <v>697.1358356759986</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.9579919422988</v>
+        <v>235.6713178245136</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.8471415074181</v>
+        <v>617.8332334317142</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.0384110307884</v>
+        <v>234.7498530532611</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.8604765042506</v>
+        <v>616.8438001388826</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3486563007602</v>
+        <v>174.2947786173518</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.1886650661775</v>
+        <v>552.3151102818051</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.3551790039146</v>
+        <v>101.86925667481</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.2808859805969</v>
+        <v>475.8707407915781</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.519406462106</v>
+        <v>508.3621042568172</v>
       </c>
       <c r="C3" t="n">
-        <v>7.720699772855188</v>
+        <v>8.361625982664025</v>
       </c>
       <c r="D3" t="n">
-        <v>3426.211768716525</v>
+        <v>3415.951012922717</v>
       </c>
       <c r="E3" t="n">
-        <v>63.41781008367642</v>
+        <v>63.21464020030625</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.8087382767815</v>
+        <v>300.9273008340988</v>
       </c>
       <c r="C4" t="n">
-        <v>8.092184704584295</v>
+        <v>8.700661769350688</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.305234488542</v>
+        <v>2747.835327817999</v>
       </c>
       <c r="E4" t="n">
-        <v>63.41781008367642</v>
+        <v>63.21464020030625</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.2365161004162</v>
+        <v>298.9194127550769</v>
       </c>
       <c r="C5" t="n">
-        <v>8.092184704584295</v>
+        <v>8.700661769350688</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.898856254479</v>
+        <v>1338.682244341188</v>
       </c>
       <c r="E5" t="n">
-        <v>63.41781008367642</v>
+        <v>63.21464020030625</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2870335350876</v>
+        <v>164.2531717607422</v>
       </c>
       <c r="C6" t="n">
-        <v>8.092184704584295</v>
+        <v>8.700661769350688</v>
       </c>
       <c r="D6" t="n">
-        <v>685.4217084828106</v>
+        <v>698.5807764338039</v>
       </c>
       <c r="E6" t="n">
-        <v>63.41781008367642</v>
+        <v>63.21464020030625</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.9463007015995</v>
+        <v>162.7886098976687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6173907017054956</v>
+        <v>0.6633385696842817</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2401726206975</v>
+        <v>687.6010631097311</v>
       </c>
       <c r="E7" t="n">
-        <v>63.41781008367642</v>
+        <v>63.21464020030625</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.7921691445758</v>
+        <v>176.251226712658</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6111789137146586</v>
+        <v>0.6572851062593172</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.006068139058</v>
+        <v>2793.50547690998</v>
       </c>
       <c r="E8" t="n">
-        <v>14.97184607411169</v>
+        <v>15.28188657239486</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.946300575233</v>
+        <v>162.7886097654601</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6173907017054956</v>
+        <v>0.6633385696842817</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.382247582221</v>
+        <v>2760.468345644956</v>
       </c>
       <c r="E9" t="n">
-        <v>14.97184607411169</v>
+        <v>15.28188657239486</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.0717376483978</v>
+        <v>159.1249861522476</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6173907017054956</v>
+        <v>0.6633385696842817</v>
       </c>
       <c r="D10" t="n">
-        <v>658.4659256019079</v>
+        <v>671.7075766163993</v>
       </c>
       <c r="E10" t="n">
-        <v>78.38965615778811</v>
+        <v>78.4965267727011</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.0717376483978</v>
+        <v>159.1249861522476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6173907017054956</v>
+        <v>0.6633385696842817</v>
       </c>
       <c r="D11" t="n">
-        <v>658.4659256019079</v>
+        <v>671.7075766163993</v>
       </c>
       <c r="E11" t="n">
-        <v>93.96101357014683</v>
+        <v>92.8740153818688</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6173907017054956</v>
+        <v>0.6633385696842817</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6820534558069</v>
+        <v>251.7206349916969</v>
       </c>
       <c r="E12" t="n">
-        <v>93.95886668459492</v>
+        <v>92.86905356343468</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.65722600519291</v>
+        <v>41.59797062152381</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>170.8894289691276</v>
+        <v>174.819938224432</v>
       </c>
       <c r="E13" t="n">
-        <v>72.33826185905896</v>
+        <v>78.49652677269634</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.65722600519291</v>
+        <v>41.59797062152381</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>170.8894289691276</v>
+        <v>174.819938224432</v>
       </c>
       <c r="E14" t="n">
-        <v>72.33826185905896</v>
+        <v>78.49652677269634</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.48816955049898</v>
+        <v>77.22530672922818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03186556282120728</v>
+        <v>0.04233253505546657</v>
       </c>
       <c r="D15" t="n">
-        <v>295.1113439291433</v>
+        <v>323.366083875518</v>
       </c>
       <c r="E15" t="n">
-        <v>54.12091341370247</v>
+        <v>54.43190489299644</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.63540390958059</v>
+        <v>45.06417555251403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03186556282121</v>
+        <v>0.0423325350554677</v>
       </c>
       <c r="D16" t="n">
-        <v>182.7499908631322</v>
+        <v>188.7316704428467</v>
       </c>
       <c r="E16" t="n">
-        <v>54.12091341373501</v>
+        <v>54.43190489298762</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.75850221388508</v>
+        <v>60.83106629254306</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>237.6478487695368</v>
+        <v>254.6996745668778</v>
       </c>
       <c r="E19" t="n">
         <v>72.41661135630625</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5370578126071</v>
+        <v>113.9372352316644</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08978619727035274</v>
+        <v>0.08482216573253935</v>
       </c>
       <c r="D20" t="n">
-        <v>2642.031751455163</v>
+        <v>2652.865249615611</v>
       </c>
       <c r="E20" t="n">
-        <v>23.29794389601663</v>
+        <v>16.29964448097558</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.22031331946458</v>
+        <v>93.68042219959591</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0852968874068351</v>
+        <v>0.08058105744591239</v>
       </c>
       <c r="D21" t="n">
-        <v>399.0170787083403</v>
+        <v>392.5310842368426</v>
       </c>
       <c r="E21" t="n">
-        <v>23.29794389601663</v>
+        <v>16.29964448097558</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.50615938728083</v>
+        <v>74.84642524220344</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>286.8352893545448</v>
+        <v>313.3819824891058</v>
       </c>
       <c r="E22" t="n">
         <v>574.8677153636058</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.40440609300801</v>
+        <v>39.9174307110652</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.68281017688651</v>
+        <v>78.47446078772822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03354269770653397</v>
+        <v>0.0445605632162806</v>
       </c>
       <c r="D25" t="n">
-        <v>2512.089045774028</v>
+        <v>2520.847650813975</v>
       </c>
       <c r="E25" t="n">
-        <v>30.82296951770419</v>
+        <v>38.13226041201765</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.6239837322046</v>
+        <v>505.724864021252</v>
       </c>
       <c r="C26" t="n">
-        <v>7.106851508243079</v>
+        <v>7.80265009575437</v>
       </c>
       <c r="D26" t="n">
-        <v>3426.211768716525</v>
+        <v>3415.951012922717</v>
       </c>
       <c r="E26" t="n">
-        <v>57.3664157849349</v>
+        <v>63.21464020030625</v>
       </c>
       <c r="F26" t="n">
-        <v>6.812426710943749</v>
+        <v>6.758612234659555</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.5002442349361</v>
+        <v>187.8902272076461</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4624188121011739</v>
+        <v>0.5082554087000603</v>
       </c>
       <c r="D27" t="n">
-        <v>2835.329013602443</v>
+        <v>2829.221373017521</v>
       </c>
       <c r="E27" t="n">
-        <v>57.3664157849349</v>
+        <v>63.21464020030625</v>
       </c>
       <c r="F27" t="n">
-        <v>7.05227364980772</v>
+        <v>6.996690267420067</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.1816467464164</v>
+        <v>173.7678364662085</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5262113207937665</v>
+        <v>0.5747173340454033</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.006068139058</v>
+        <v>2793.50547690998</v>
       </c>
       <c r="E28" t="n">
-        <v>14.97184607411169</v>
+        <v>15.28188657239486</v>
       </c>
       <c r="F28" t="n">
-        <v>6.896771769146702</v>
+        <v>6.863274632242382</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.2440178104647</v>
+        <v>184.7086997762942</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4624188121011739</v>
+        <v>0.5082554087000603</v>
       </c>
       <c r="D29" t="n">
-        <v>2826.155496020253</v>
+        <v>2822.26811921653</v>
       </c>
       <c r="E29" t="n">
-        <v>72.33826185904658</v>
+        <v>78.4965267727011</v>
       </c>
       <c r="F29" t="n">
-        <v>7.032353604351821</v>
+        <v>6.981556282584551</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.5370578126137</v>
+        <v>113.9372352316621</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1274787884496627</v>
+        <v>0.1634015990182843</v>
       </c>
       <c r="D30" t="n">
-        <v>2642.031751455183</v>
+        <v>2652.865249615604</v>
       </c>
       <c r="E30" t="n">
-        <v>72.33826185904658</v>
+        <v>78.4965267727011</v>
       </c>
       <c r="F30" t="n">
-        <v>7.162239256613629</v>
+        <v>7.080377511184217</v>
       </c>
       <c r="G30" t="n">
-        <v>98.04680687802704</v>
+        <v>98.01127588388211</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.68281017689475</v>
+        <v>78.4744607877297</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03354269770653361</v>
+        <v>0.04456056321628166</v>
       </c>
       <c r="D31" t="n">
-        <v>2512.089045774058</v>
+        <v>2520.847650813965</v>
       </c>
       <c r="E31" t="n">
-        <v>49.04031796304831</v>
+        <v>62.19688229172231</v>
       </c>
       <c r="F31" t="n">
-        <v>7.390247292861449</v>
+        <v>7.292017626434043</v>
       </c>
       <c r="G31" t="n">
-        <v>94.98120631245357</v>
+        <v>94.82615147193789</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71.68281017689475</v>
+        <v>78.4744607877297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03354269770653361</v>
+        <v>0.04456056321628166</v>
       </c>
       <c r="D32" t="n">
-        <v>2512.089045774058</v>
+        <v>2520.847650813965</v>
       </c>
       <c r="E32" t="n">
-        <v>18.21734844532395</v>
+        <v>24.06462187970872</v>
       </c>
       <c r="F32" t="n">
-        <v>7.390247292861449</v>
+        <v>7.292017626434043</v>
       </c>
       <c r="G32" t="n">
-        <v>94.98120631245357</v>
+        <v>94.82615147193789</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30.1973433720093</v>
+        <v>32.03948196748155</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004295319077361202</v>
+        <v>0.004770211278735524</v>
       </c>
       <c r="D33" t="n">
-        <v>2367.675575070377</v>
+        <v>2321.668257991389</v>
       </c>
       <c r="E33" t="n">
-        <v>18.21734844532395</v>
+        <v>24.06462187970872</v>
       </c>
       <c r="F33" t="n">
-        <v>7.827430500870261</v>
+        <v>7.632161322481026</v>
       </c>
       <c r="G33" t="n">
-        <v>92.25198961192828</v>
+        <v>90.20380873583291</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.1973433720093</v>
+        <v>32.03948196748155</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004295319077361202</v>
+        <v>0.004770211278735524</v>
       </c>
       <c r="D34" t="n">
-        <v>126.558925444685</v>
+        <v>134.2592877016306</v>
       </c>
       <c r="E34" t="n">
-        <v>18.21734844532395</v>
+        <v>24.06462187970872</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.22315875143744</v>
+        <v>34.06607548956674</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>135.653541307966</v>
+        <v>143.3529121147068</v>
       </c>
       <c r="E35" t="n">
-        <v>18.21734844532395</v>
+        <v>24.06462187970872</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>505.8464559875321</v>
+        <v>505.8511406608303</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3481.144316592151</v>
+        <v>3481.154659853429</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16421752423169</v>
+        <v>10.16419583902809</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>520.8464559875321</v>
+        <v>520.8511406608303</v>
       </c>
       <c r="C42" t="n">
-        <v>6.354933727154451</v>
+        <v>6.354344080722634</v>
       </c>
       <c r="D42" t="n">
-        <v>3468.722802959323</v>
+        <v>3468.741415828819</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80225166791828</v>
+        <v>11.80200595576522</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
